--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>微软用户</author>
+    <author>dell</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0">
@@ -95,6 +96,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="O5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+4.8-4.12组内无扣分
+4.15-4.19组内无扣分
+4.22-4.26组内无扣分</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E6" authorId="0">
       <text>
         <r>
@@ -215,6 +244,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="O8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+4.15-4.19组内无扣分
+4.22-4.26组内无扣分</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E9" authorId="0">
       <text>
         <r>
@@ -287,6 +343,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="O10" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+4.15-4.19组内无扣分
+4.22-4.26组内无扣分</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0">
       <text>
         <r>
@@ -356,6 +439,35 @@
           </rPr>
           <t xml:space="preserve">
 讨论问题声音过大</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>dell:
+4.1-4.5组内无扣分</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+4.8-4.12组内无扣分
+4.15-4.19组内无扣分
+4.22-4.26组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -573,7 +685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +751,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -797,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +975,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1272,34 +1402,34 @@
     </row>
     <row r="5" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
-      <c r="B5" s="1">
+      <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="19">
+        <v>100</v>
+      </c>
+      <c r="E5" s="20">
         <v>20</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="20">
         <v>20</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="20">
         <v>10</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="7">
-        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5</f>
-        <v>50</v>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21">
+        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5</f>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1362,32 +1492,32 @@
     </row>
     <row r="8" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
-      <c r="B8" s="1">
+      <c r="B8" s="19">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="19">
+        <v>100</v>
+      </c>
+      <c r="E8" s="20">
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="20">
         <v>20</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="7">
-        <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8+5</f>
-        <v>75</v>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21">
+        <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8+5+5</f>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1420,32 +1550,32 @@
     </row>
     <row r="10" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="B10" s="1">
+      <c r="B10" s="19">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <v>100</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="19">
+        <v>100</v>
+      </c>
+      <c r="E10" s="20">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="20">
         <v>20</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="7">
-        <f t="shared" si="1"/>
-        <v>70</v>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21">
+        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5</f>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1640,28 +1770,28 @@
     </row>
     <row r="18" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="1">
+      <c r="B18" s="19">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="7">
-        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5</f>
-        <v>105</v>
+      <c r="D18" s="19">
+        <v>100</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21">
+        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5</f>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -120,7 +120,8 @@
           <t xml:space="preserve">
 4.8-4.12组内无扣分
 4.15-4.19组内无扣分
-4.22-4.26组内无扣分</t>
+4.22-4.26组内无扣分
+5.6-5.10组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -267,7 +268,8 @@
           </rPr>
           <t xml:space="preserve">
 4.15-4.19组内无扣分
-4.22-4.26组内无扣分</t>
+4.22-4.26组内无扣分
+5.6-5.10组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -366,7 +368,8 @@
           </rPr>
           <t xml:space="preserve">
 4.15-4.19组内无扣分
-4.22-4.26组内无扣分</t>
+4.22-4.26组内无扣分
+5.6-5.10组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -467,7 +470,8 @@
           <t xml:space="preserve">
 4.8-4.12组内无扣分
 4.15-4.19组内无扣分
-4.22-4.26组内无扣分</t>
+4.22-4.26组内无扣分
+5.6-5.10组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -964,6 +968,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,15 +988,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1299,12 +1303,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1347,7 +1351,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -1375,7 +1379,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1401,39 +1405,39 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19">
-        <v>100</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="15">
+        <v>100</v>
+      </c>
+      <c r="E5" s="16">
         <v>20</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>10</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21">
-        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5</f>
-        <v>65</v>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17">
+        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5+5</f>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1461,7 +1465,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1491,37 +1495,37 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19">
+      <c r="A8" s="20"/>
+      <c r="B8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19">
-        <v>100</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="D8" s="15">
+        <v>100</v>
+      </c>
+      <c r="E8" s="16">
         <v>10</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <v>20</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21">
-        <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8+5+5</f>
-        <v>80</v>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17">
+        <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8+5+5+5</f>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1549,37 +1553,37 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19">
-        <v>100</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="15">
+        <v>100</v>
+      </c>
+      <c r="E10" s="16">
         <v>10</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <v>20</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21">
-        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5</f>
-        <v>80</v>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17">
+        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5+5</f>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1607,7 +1611,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1635,7 +1639,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1661,7 +1665,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
@@ -1689,7 +1693,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1715,7 +1719,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1743,7 +1747,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1769,33 +1773,33 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19">
+      <c r="A18" s="20"/>
+      <c r="B18" s="15">
         <v>16</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="19">
-        <v>100</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21">
-        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5</f>
-        <v>120</v>
+      <c r="D18" s="15">
+        <v>100</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17">
+        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5+5</f>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1816,12 +1820,12 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="7">
-        <f t="shared" si="1"/>
+        <f>D19-E19-F19-G19-H19-I19-J19-K19-L19-M19-N19</f>
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1">
@@ -1849,7 +1853,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1875,7 +1879,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1903,7 +1907,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1">
@@ -1933,7 +1937,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -1961,7 +1965,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2">
         <v>24</v>
       </c>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -472,6 +472,30 @@
 4.15-4.19组内无扣分
 4.22-4.26组内无扣分
 5.6-5.10组内无扣分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5.13日下午上课睡觉</t>
         </r>
       </text>
     </comment>
@@ -1292,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1837,7 +1861,9 @@
       <c r="D20" s="1">
         <v>100</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5">
+        <v>50</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1849,7 +1875,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -121,7 +121,9 @@
 4.8-4.12组内无扣分
 4.15-4.19组内无扣分
 4.22-4.26组内无扣分
-5.6-5.10组内无扣分</t>
+5.6-5.10组内无扣分
+5.13-5.17组内无扣分
+5.20-5.24组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -146,6 +148,32 @@
           </rPr>
           <t xml:space="preserve">
 4.8中午迟到</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5.20-5.24组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -369,7 +397,9 @@
           <t xml:space="preserve">
 4.15-4.19组内无扣分
 4.22-4.26组内无扣分
-5.6-5.10组内无扣分</t>
+5.6-5.10组内无扣分
+5.13-5.17组内无扣分
+5.20-5.24组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -471,7 +501,9 @@
 4.8-4.12组内无扣分
 4.15-4.19组内无扣分
 4.22-4.26组内无扣分
-5.6-5.10组内无扣分</t>
+5.6-5.10组内无扣分
+5.13-5.17组内无扣分
+5.20-5.24组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -946,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1044,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1456,36 +1494,36 @@
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="17">
-        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5+5</f>
-        <v>70</v>
+        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5+5+5+5</f>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
-      <c r="B6" s="1">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="15">
+        <v>100</v>
+      </c>
+      <c r="E6" s="16">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="7">
-        <f t="shared" ref="O6:O25" si="1">D6-E6-F6-G6-H6-I6-J6-K6-L6-M6-N6</f>
-        <v>90</v>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17">
+        <f>D6-E6-F6-G6-H6-I6-J6-K6-L6-M6-N6+5</f>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1514,36 +1552,36 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O6:O25" si="1">D7-E7-F7-G7-H7-I7-J7-K7-L7-M7-N7</f>
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
-      <c r="B8" s="15">
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15">
-        <v>100</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="22">
         <v>10</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="22">
         <v>20</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23">
         <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8+5+5+5</f>
         <v>85</v>
       </c>
@@ -1602,8 +1640,8 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="17">
-        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5+5</f>
-        <v>85</v>
+        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5+5+5+5</f>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1818,8 +1856,8 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="17">
-        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5+5</f>
-        <v>125</v>
+        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5+5+5+5</f>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -123,7 +123,8 @@
 4.22-4.26组内无扣分
 5.6-5.10组内无扣分
 5.13-5.17组内无扣分
-5.20-5.24组内无扣分</t>
+5.20-5.24组内无扣分
+5.27-5.31组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -399,7 +400,8 @@
 4.22-4.26组内无扣分
 5.6-5.10组内无扣分
 5.13-5.17组内无扣分
-5.20-5.24组内无扣分</t>
+5.20-5.24组内无扣分
+5.27-5.31组内无扣分</t>
         </r>
       </text>
     </comment>
@@ -448,6 +450,33 @@
           </rPr>
           <t xml:space="preserve">
 3.28讨论问题声音过大</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5.27-5.31组内无扣分
+</t>
         </r>
       </text>
     </comment>
@@ -503,11 +532,12 @@
 4.22-4.26组内无扣分
 5.6-5.10组内无扣分
 5.13-5.17组内无扣分
-5.20-5.24组内无扣分</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="1">
+5.20-5.24组内无扣分
+5.27-5.31组内无扣分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -531,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="E25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -602,30 +632,6 @@
           </rPr>
           <t xml:space="preserve">
 3.28值日忘记关灯</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>微软用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-4.2晚自习迟到</t>
         </r>
       </text>
     </comment>
@@ -634,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>项目部成员名单</t>
   </si>
@@ -724,9 +730,6 @@
   </si>
   <si>
     <t>王芷烽</t>
-  </si>
-  <si>
-    <t>马瑞阳</t>
   </si>
   <si>
     <t>总分</t>
@@ -738,6 +741,14 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张琦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子健</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +840,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -927,65 +938,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1005,12 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,6 +990,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,15 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1365,55 +1319,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -1425,23 +1379,23 @@
       <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="7">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="6">
         <f t="shared" ref="O3:O4" si="0">D3-E3-F3-G3-H3-I3-J3-K3-L3-M3-N3</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1451,201 +1405,201 @@
       <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="7">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15">
-        <v>100</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="D5" s="12">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13">
         <v>20</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>20</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="13">
         <v>10</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17">
-        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5+5+5+5</f>
-        <v>80</v>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14">
+        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5+5+5+5+5</f>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15">
-        <v>100</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="D6" s="7">
+        <v>100</v>
+      </c>
+      <c r="E6" s="15">
         <v>10</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16">
         <f>D6-E6-F6-G6-H6-I6-J6-K6-L6-M6-N6+5</f>
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8">
-        <v>100</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="7">
-        <f t="shared" ref="O6:O25" si="1">D7-E7-F7-G7-H7-I7-J7-K7-L7-M7-N7</f>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6">
+        <f t="shared" ref="O7:O26" si="1">D7-E7-F7-G7-H7-I7-J7-K7-L7-M7-N7</f>
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
-        <v>100</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D8" s="7">
+        <v>100</v>
+      </c>
+      <c r="E8" s="15">
         <v>10</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="15">
         <v>20</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16">
         <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8+5+5+5</f>
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="7">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="7">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15">
-        <v>100</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="12">
+        <v>100</v>
+      </c>
+      <c r="E10" s="13">
         <v>10</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>20</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17">
-        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5+5+5+5</f>
-        <v>95</v>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14">
+        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5+5+5+5+5</f>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1655,25 +1609,25 @@
       <c r="D11" s="1">
         <v>100</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="7">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1683,25 +1637,25 @@
       <c r="D12" s="1">
         <v>100</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="7">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1711,23 +1665,23 @@
       <c r="D13" s="1">
         <v>100</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="7">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
@@ -1739,49 +1693,49 @@
       <c r="D14" s="1">
         <v>100</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="7">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1">
-        <v>100</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="7">
-        <f t="shared" si="1"/>
-        <v>100</v>
+      <c r="D15" s="12">
+        <v>100</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14">
+        <f>D15-E15-F15-G15-H15-I15-J15-K15-L15-M15-N15+5</f>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1791,25 +1745,25 @@
       <c r="D16" s="1">
         <v>100</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>10</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="7">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1819,253 +1773,277 @@
       <c r="D17" s="1">
         <v>100</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="7">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="15">
-        <v>100</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17">
-        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5+5+5+5</f>
-        <v>135</v>
+      <c r="D18" s="12">
+        <v>100</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14">
+        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5+5+5+5+5</f>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7">
+        <v>100</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16">
+        <f>D19-E19-F19-G19-H19-I19-J19-K19-L19-M19-N19</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7">
+        <v>100</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16">
+        <f>D20-E20-F20-G20-H20-I20-J20-K20-L20-M20-N20</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="7">
-        <f>D19-E19-F19-G19-H19-I19-J19-K19-L19-M19-N19</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="6">
+        <f>D21-E21-F21-G21-H21-I21-J21-K21-L21-M21-N21</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1">
-        <v>100</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4">
         <v>50</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="7">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="23" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="7">
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="24" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4">
         <v>50</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="7">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
+    <row r="25" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="8">
-        <v>100</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D25" s="7">
+        <v>100</v>
+      </c>
+      <c r="E25" s="4">
         <v>10</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="7">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="26" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="8">
-        <v>100</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D26" s="7">
+        <v>100</v>
+      </c>
+      <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="7">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2">
-        <v>100</v>
-      </c>
-      <c r="E25" s="9">
-        <v>10</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="10">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+    <row r="27" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -18,11 +18,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>dell</author>
     <author>微软用户</author>
-    <author>dell</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2019.6.18上午睡觉</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -46,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -70,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -96,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="1">
+    <comment ref="O5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,11 +148,13 @@
 5.6-5.10组内无扣分
 5.13-5.17组内无扣分
 5.20-5.24组内无扣分
-5.27-5.31组内无扣分</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
+5.27-5.31组内无扣分
+6.3-6.7组内无扣分
+6.10-6.14组内无扣分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -152,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="1">
+    <comment ref="O6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -202,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -226,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -250,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -274,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="1">
+    <comment ref="O8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,11 +324,13 @@
           <t xml:space="preserve">
 4.15-4.19组内无扣分
 4.22-4.26组内无扣分
-5.6-5.10组内无扣分</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
+5.6-5.10组内无扣分
+6.3-6.7组内无扣分
+6.10-6.14组内无扣分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -326,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -350,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -374,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="1">
+    <comment ref="O10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -401,11 +429,13 @@
 5.6-5.10组内无扣分
 5.13-5.17组内无扣分
 5.20-5.24组内无扣分
-5.27-5.31组内无扣分</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
+5.27-5.31组内无扣分
+6.3-6.7组内无扣分
+6.10-6.14组内无扣分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -429,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -453,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="1">
+    <comment ref="O15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -504,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="1">
+    <comment ref="O18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -533,11 +563,13 @@
 5.6-5.10组内无扣分
 5.13-5.17组内无扣分
 5.20-5.24组内无扣分
-5.27-5.31组内无扣分</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="1">
+5.27-5.31组内无扣分
+6.3-6.7组内无扣分
+6.10-6.14组内无扣分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -587,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -611,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
+    <comment ref="E26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1308,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1405,7 +1437,9 @@
       <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>50</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1417,7 +1451,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1448,8 +1482,8 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="14">
-        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5+5+5+5+5</f>
-        <v>85</v>
+        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5+5+5+5+5+5+5+5+5+5</f>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1512,32 +1546,32 @@
     </row>
     <row r="8" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
-      <c r="B8" s="7">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
-        <v>100</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="12">
+        <v>100</v>
+      </c>
+      <c r="E8" s="13">
         <v>10</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>20</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16">
-        <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8+5+5+5</f>
-        <v>85</v>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14">
+        <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8+5+5+5+5+5</f>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1594,8 +1628,8 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="14">
-        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5+5+5+5+5</f>
-        <v>100</v>
+        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10+5+5+5+5+5+5+5+5</f>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1710,26 +1744,26 @@
     </row>
     <row r="15" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12">
-        <v>100</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14">
+      <c r="D15" s="7">
+        <v>100</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16">
         <f>D15-E15-F15-G15-H15-I15-J15-K15-L15-M15-N15+5</f>
         <v>105</v>
       </c>
@@ -1810,8 +1844,8 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="14">
-        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5+5+5+5+5</f>
-        <v>140</v>
+        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18+5+5+5+5+5+5+5+5+5+5</f>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>项目部成员名单</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>高彬</t>
-  </si>
-  <si>
-    <t>7班</t>
-  </si>
-  <si>
-    <t>严姝莉</t>
   </si>
 </sst>
 </file>
@@ -181,12 +175,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,165 +205,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -390,109 +369,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,73 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,11 +655,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,8 +680,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,56 +740,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,137 +770,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,25 +931,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -982,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1333,10 +1300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:O31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1362,7 +1329,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="18"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1389,7 +1356,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1416,8 +1383,8 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="19">
-        <f t="shared" ref="O3:O4" si="0">D3-E3-F3-G3-H3-I3-J3-K3-L3-M3-N3</f>
+      <c r="O3" s="15">
+        <f t="shared" ref="O3:O6" si="0">D3-E3-F3-G3-H3-I3-J3-K3-L3-M3-N3</f>
         <v>100</v>
       </c>
     </row>
@@ -1442,60 +1409,60 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="19">
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="5" ht="29.1" customHeight="1" spans="1:15">
       <c r="A5" s="8"/>
-      <c r="B5" s="10">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
-        <v>100</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="20">
-        <f>D5-E5-F5-G5-H5-I5-J5-K5-L5-M5-N5</f>
+      <c r="D5" s="10">
+        <v>100</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="6" ht="29.1" customHeight="1" spans="1:15">
       <c r="A6" s="8"/>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
-        <v>100</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="20">
-        <f>D6-E6-F6-G6-H6-I6-J6-K6-L6-M6-N6</f>
+      <c r="D6" s="10">
+        <v>100</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1507,7 +1474,7 @@
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>100</v>
       </c>
       <c r="E7" s="7"/>
@@ -1520,36 +1487,36 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="19">
+      <c r="O7" s="15">
         <f t="shared" ref="O7:O26" si="1">D7-E7-F7-G7-H7-I7-J7-K7-L7-M7-N7</f>
         <v>100</v>
       </c>
     </row>
     <row r="8" ht="29.1" customHeight="1" spans="1:15">
       <c r="A8" s="8"/>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11">
-        <v>100</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="10">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11">
         <v>50</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="20">
-        <f>D8-E8-F8-G8-H8-I8-J8-K8-L8-M8-N8</f>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="16">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -1561,7 +1528,7 @@
       <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>100</v>
       </c>
       <c r="E9" s="7"/>
@@ -1574,34 +1541,34 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="19">
+      <c r="O9" s="15">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="29.1" customHeight="1" spans="1:15">
       <c r="A10" s="8"/>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11">
-        <v>100</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="20">
-        <f>D10-E10-F10-G10-H10-I10-J10-K10-L10-M10-N10</f>
+      <c r="D10" s="10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1626,7 +1593,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="19">
+      <c r="O11" s="15">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1652,7 +1619,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="19">
+      <c r="O12" s="15">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1678,13 +1645,13 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="19">
+      <c r="O13" s="15">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="14" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="8">
@@ -1712,33 +1679,33 @@
       </c>
     </row>
     <row r="15" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11">
-        <v>100</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13">
-        <f>D15-E15-F15-G15-H15-I15-J15-K15-L15-M15-N15</f>
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="16" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A16" s="14"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -1764,7 +1731,7 @@
       </c>
     </row>
     <row r="17" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A17" s="14"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -1790,85 +1757,85 @@
       </c>
     </row>
     <row r="18" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11">
-        <v>100</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13">
-        <f>D18-E18-F18-G18-H18-I18-J18-K18-L18-M18-N18</f>
+      <c r="D18" s="10">
+        <v>100</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="19" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11">
-        <v>100</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13">
-        <f>D19-E19-F19-G19-H19-I19-J19-K19-L19-M19-N19</f>
+      <c r="D19" s="10">
+        <v>100</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="20" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="11">
-        <v>100</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13">
-        <f>D20-E20-F20-G20-H20-I20-J20-K20-L20-M20-N20</f>
+      <c r="D20" s="10">
+        <v>100</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="21" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A21" s="14"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -1889,37 +1856,37 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7">
-        <f>D21-E21-F21-G21-H21-I21-J21-K21-L21-M21-N21</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="22" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="15">
-        <v>100</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16">
+      <c r="D22" s="8">
+        <v>100</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="23" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="8">
@@ -1941,13 +1908,13 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="19">
+      <c r="O23" s="15">
         <f>D23-E23-F23-G23-H23-I23-J23-K23-L23-M23-N23</f>
         <v>100</v>
       </c>
     </row>
     <row r="24" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A24" s="17"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -1967,13 +1934,13 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="19">
+      <c r="O24" s="15">
         <f>D24-E24-F24-G24-H24-I24-J24-K24-L24-M24-N24</f>
         <v>100</v>
       </c>
     </row>
     <row r="25" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A25" s="17"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -1993,65 +1960,65 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="19">
+      <c r="O25" s="15">
         <f>D25-E25-F25-G25-H25-I25-J25-K25-L25-M25-N25</f>
         <v>100</v>
       </c>
     </row>
     <row r="26" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="8">
         <v>24</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="15">
-        <v>100</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16">
+      <c r="D26" s="8">
+        <v>100</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="27" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8">
         <v>25</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="15">
-        <v>100</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16">
+      <c r="D27" s="8">
+        <v>100</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:15">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="8">
@@ -2060,7 +2027,7 @@
       <c r="C28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>100</v>
       </c>
       <c r="E28" s="7"/>
@@ -2079,14 +2046,14 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">
-      <c r="A29" s="14"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="8">
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>100</v>
       </c>
       <c r="E29" s="7"/>
@@ -2105,54 +2072,27 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8">
         <v>28</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="15">
-        <v>100</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:15">
-      <c r="A31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="15">
-        <v>29</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="15">
-        <v>100</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="15">
+      <c r="D30" s="8">
+        <v>100</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7">
         <v>100</v>
       </c>
     </row>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -176,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -213,7 +213,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,8 +242,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,43 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -288,67 +342,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -369,156 +369,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,30 +550,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,6 +649,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,26 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,17 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,15 +742,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -758,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,133 +770,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1302,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1367,7 +1367,7 @@
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8">
@@ -1393,7 +1393,7 @@
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="8">
@@ -1577,7 +1577,7 @@
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8">
@@ -1629,7 +1629,7 @@
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="8">
@@ -1683,7 +1683,7 @@
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="10">
@@ -1918,7 +1918,7 @@
       <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="8">

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -21,6 +21,28 @@
     <author>HP</author>
   </authors>
   <commentList>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2019..9.25合唱未到，旷课处理！</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E8" authorId="0">
       <text>
         <r>
@@ -43,12 +65,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+HP:
+2019..9.25合唱未到，旷课处理！
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+HP:
+2019..9.25合唱未到，旷课处理！
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>项目部成员名单</t>
   </si>
@@ -71,7 +141,7 @@
     <t>合计</t>
   </si>
   <si>
-    <t>1班</t>
+    <t>高职1班</t>
   </si>
   <si>
     <t>丁凯</t>
@@ -105,9 +175,6 @@
   </si>
   <si>
     <t>年佳茹</t>
-  </si>
-  <si>
-    <t>2班</t>
   </si>
   <si>
     <t>刘轩睿</t>
@@ -175,9 +242,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -206,21 +273,112 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,63 +393,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,52 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -369,13 +436,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,19 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,134 +620,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -626,12 +693,34 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -644,11 +733,37 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,35 +777,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +816,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -742,11 +848,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,10 +862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,137 +874,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,12 +1029,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,16 +1050,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,7 +1419,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1329,7 +1445,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="14"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1356,7 +1472,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1364,18 +1480,18 @@
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>100</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1383,20 +1499,20 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="15">
+      <c r="O3" s="19">
         <f t="shared" ref="O3:O6" si="0">D3-E3-F3-G3-H3-I3-J3-K3-L3-M3-N3</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8">
+      <c r="A4" s="11"/>
+      <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>100</v>
       </c>
       <c r="E4" s="7"/>
@@ -1409,75 +1525,77 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="15">
+      <c r="O4" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="5" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <v>100</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="16">
+      <c r="D5" s="12">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="6" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10">
-        <v>100</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="16">
+      <c r="D6" s="12">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="7" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="D7" s="12">
+        <v>100</v>
+      </c>
+      <c r="E7" s="15">
+        <v>50</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1487,48 +1605,48 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="15">
+      <c r="O7" s="19">
         <f t="shared" ref="O7:O26" si="1">D7-E7-F7-G7-H7-I7-J7-K7-L7-M7-N7</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10">
-        <v>100</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="12">
+        <v>100</v>
+      </c>
+      <c r="E8" s="13">
         <v>50</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="16">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="20">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="12">
         <v>100</v>
       </c>
       <c r="E9" s="7"/>
@@ -1541,49 +1659,51 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="15">
+      <c r="O9" s="19">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10">
-        <v>100</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="16">
+      <c r="D10" s="12">
+        <v>100</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="20">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="11" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
-        <v>100</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="D11" s="9">
+        <v>100</v>
+      </c>
+      <c r="E11" s="15">
+        <v>50</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1593,20 +1713,20 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="15">
+      <c r="O11" s="19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>100</v>
       </c>
       <c r="E12" s="7"/>
@@ -1619,20 +1739,20 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="15">
+      <c r="O12" s="19">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="13" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>100</v>
       </c>
       <c r="E13" s="7"/>
@@ -1645,22 +1765,20 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="15">
+      <c r="O13" s="19">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="14" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>100</v>
       </c>
       <c r="E14" s="7"/>
@@ -1679,40 +1797,40 @@
       </c>
     </row>
     <row r="15" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12">
+        <v>100</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" ht="29.1" customHeight="1" spans="1:15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10">
-        <v>100</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>100</v>
       </c>
       <c r="E16" s="7"/>
@@ -1731,14 +1849,14 @@
       </c>
     </row>
     <row r="17" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9">
         <v>100</v>
       </c>
       <c r="E17" s="7"/>
@@ -1757,92 +1875,92 @@
       </c>
     </row>
     <row r="18" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12">
+        <v>100</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" ht="29.1" customHeight="1" spans="1:15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10">
-        <v>100</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12">
+      <c r="D19" s="12">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
+    <row r="20" ht="29.1" customHeight="1" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="10">
-        <v>100</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12">
+      <c r="D20" s="12">
+        <v>100</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="21" ht="29.1" customHeight="1" spans="1:15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10">
-        <v>100</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>100</v>
       </c>
       <c r="E21" s="7"/>
@@ -1861,14 +1979,14 @@
       </c>
     </row>
     <row r="22" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="9">
         <v>100</v>
       </c>
       <c r="E22" s="7"/>
@@ -1886,19 +2004,21 @@
       </c>
     </row>
     <row r="23" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="8">
-        <v>21</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8">
-        <v>100</v>
-      </c>
-      <c r="E23" s="7"/>
+      <c r="D23" s="9">
+        <v>100</v>
+      </c>
+      <c r="E23" s="15">
+        <v>50</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1908,20 +2028,20 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="15">
+      <c r="O23" s="19">
         <f>D23-E23-F23-G23-H23-I23-J23-K23-L23-M23-N23</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="8">
+      <c r="A24" s="17"/>
+      <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="9">
         <v>100</v>
       </c>
       <c r="E24" s="7"/>
@@ -1934,20 +2054,20 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="15">
+      <c r="O24" s="19">
         <f>D24-E24-F24-G24-H24-I24-J24-K24-L24-M24-N24</f>
         <v>100</v>
       </c>
     </row>
     <row r="25" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="8">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9">
         <v>100</v>
       </c>
       <c r="E25" s="7"/>
@@ -1960,22 +2080,22 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="15">
+      <c r="O25" s="19">
         <f>D25-E25-F25-G25-H25-I25-J25-K25-L25-M25-N25</f>
         <v>100</v>
       </c>
     </row>
     <row r="26" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>100</v>
       </c>
       <c r="E26" s="7"/>
@@ -1993,14 +2113,14 @@
       </c>
     </row>
     <row r="27" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="9">
         <v>100</v>
       </c>
       <c r="E27" s="7"/>
@@ -2018,16 +2138,16 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8">
-        <v>26</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="D28" s="12">
         <v>100</v>
       </c>
       <c r="E28" s="7"/>
@@ -2046,14 +2166,14 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="C29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="12">
         <v>100</v>
       </c>
       <c r="E29" s="7"/>
@@ -2072,14 +2192,14 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9">
         <v>28</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="9">
         <v>100</v>
       </c>
       <c r="E30" s="7"/>
@@ -2097,10 +2217,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A3:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A30"/>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>项目部成员名单</t>
   </si>
@@ -204,7 +204,7 @@
     <t>何雨秋</t>
   </si>
   <si>
-    <t>3班</t>
+    <t>计算机三班</t>
   </si>
   <si>
     <t>高浩博</t>
@@ -216,7 +216,7 @@
     <t>张明媛</t>
   </si>
   <si>
-    <t>4班</t>
+    <t>计算机四班</t>
   </si>
   <si>
     <t>苏振军</t>
@@ -225,7 +225,10 @@
     <t>李佳媛</t>
   </si>
   <si>
-    <t>5班</t>
+    <t>赵明轩</t>
+  </si>
+  <si>
+    <t>计算机五班</t>
   </si>
   <si>
     <t>贾海港</t>
@@ -273,21 +276,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,23 +367,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,28 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -369,53 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -436,103 +439,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,84 +613,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -693,34 +696,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -733,46 +714,11 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,36 +728,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,6 +765,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -862,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,19 +840,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,116 +861,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,18 +995,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,22 +1010,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,10 +1373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1445,7 +1402,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="18"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1472,7 +1429,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1480,18 +1437,18 @@
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>100</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1499,20 +1456,20 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="19">
+      <c r="O3" s="7">
         <f t="shared" ref="O3:O6" si="0">D3-E3-F3-G3-H3-I3-J3-K3-L3-M3-N3</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>100</v>
       </c>
       <c r="E4" s="7"/>
@@ -1525,75 +1482,75 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="19">
+      <c r="O4" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="5" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12">
-        <v>100</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="20">
+      <c r="D5" s="10">
+        <v>100</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="6" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12">
-        <v>100</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="20">
+      <c r="D6" s="10">
+        <v>100</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="7" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12">
-        <v>100</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="10">
+        <v>100</v>
+      </c>
+      <c r="E7" s="11">
         <v>50</v>
       </c>
       <c r="F7" s="7"/>
@@ -1605,48 +1562,48 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="19">
+      <c r="O7" s="7">
         <f t="shared" ref="O7:O26" si="1">D7-E7-F7-G7-H7-I7-J7-K7-L7-M7-N7</f>
         <v>50</v>
       </c>
     </row>
     <row r="8" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12">
-        <v>100</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="10">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11">
         <v>50</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="20">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>100</v>
       </c>
       <c r="E9" s="7"/>
@@ -1659,49 +1616,49 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="19">
+      <c r="O9" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12">
-        <v>100</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="20">
+      <c r="D10" s="10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="11" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9">
-        <v>100</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="8">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11">
         <v>50</v>
       </c>
       <c r="F11" s="7"/>
@@ -1713,20 +1670,20 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="19">
+      <c r="O11" s="7">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="12" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>100</v>
       </c>
       <c r="E12" s="7"/>
@@ -1739,20 +1696,20 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="19">
+      <c r="O12" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="13" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>100</v>
       </c>
       <c r="E13" s="7"/>
@@ -1765,20 +1722,20 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="19">
+      <c r="O13" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="14" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>100</v>
       </c>
       <c r="E14" s="7"/>
@@ -1797,40 +1754,40 @@
       </c>
     </row>
     <row r="15" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12">
-        <v>100</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14">
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="16" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>100</v>
       </c>
       <c r="E16" s="7"/>
@@ -1849,14 +1806,14 @@
       </c>
     </row>
     <row r="17" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>100</v>
       </c>
       <c r="E17" s="7"/>
@@ -1875,92 +1832,92 @@
       </c>
     </row>
     <row r="18" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="12">
-        <v>100</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14">
+      <c r="D18" s="10">
+        <v>100</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="19" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="12">
-        <v>100</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14">
+      <c r="D19" s="10">
+        <v>100</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="20" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="12">
-        <v>100</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14">
+      <c r="D20" s="10">
+        <v>100</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="21" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>100</v>
       </c>
       <c r="E21" s="7"/>
@@ -1979,14 +1936,14 @@
       </c>
     </row>
     <row r="22" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="9">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>100</v>
       </c>
       <c r="E22" s="7"/>
@@ -2004,19 +1961,19 @@
       </c>
     </row>
     <row r="23" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="9">
-        <v>100</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="D23" s="8">
+        <v>100</v>
+      </c>
+      <c r="E23" s="11">
         <v>50</v>
       </c>
       <c r="F23" s="7"/>
@@ -2028,20 +1985,20 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="19">
+      <c r="O23" s="7">
         <f>D23-E23-F23-G23-H23-I23-J23-K23-L23-M23-N23</f>
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>100</v>
       </c>
       <c r="E24" s="7"/>
@@ -2054,20 +2011,20 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="19">
+      <c r="O24" s="7">
         <f>D24-E24-F24-G24-H24-I24-J24-K24-L24-M24-N24</f>
         <v>100</v>
       </c>
     </row>
     <row r="25" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
         <v>23</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>100</v>
       </c>
       <c r="E25" s="7"/>
@@ -2080,22 +2037,22 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="19">
+      <c r="O25" s="7">
         <f>D25-E25-F25-G25-H25-I25-J25-K25-L25-M25-N25</f>
         <v>100</v>
       </c>
     </row>
     <row r="26" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>24</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>100</v>
       </c>
       <c r="E26" s="7"/>
@@ -2113,14 +2070,14 @@
       </c>
     </row>
     <row r="27" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8">
         <v>25</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>100</v>
       </c>
       <c r="E27" s="7"/>
@@ -2138,42 +2095,43 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="9">
-        <v>26</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="14">
+        <v>100</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15">
+        <v>1</v>
+      </c>
+      <c r="O28" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:15">
+      <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="12">
-        <v>100</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7">
-        <f>D28-E28-F28-G28-H28-I28-J28-K28-L28-M28-N28</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>27</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>100</v>
       </c>
       <c r="E29" s="7"/>
@@ -2192,14 +2150,14 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9">
+      <c r="A30" s="13"/>
+      <c r="B30" s="8">
         <v>28</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="10">
         <v>100</v>
       </c>
       <c r="E30" s="7"/>
@@ -2213,6 +2171,32 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7">
+        <f>D30-E30-F30-G30-H30-I30-J30-K30-L30-M30-N30</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="8">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="8">
+        <v>100</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7">
         <v>100</v>
       </c>
     </row>
@@ -2221,8 +2205,8 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9360"/>
+    <workbookView windowWidth="21000" windowHeight="8495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,10 +245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -283,14 +283,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +335,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -312,113 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -439,187 +439,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,45 +728,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,8 +776,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,7 +840,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,10 +849,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,116 +861,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,15 +1008,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1375,8 +1366,8 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1402,7 +1393,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="16"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1429,7 +1420,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2043,7 +2034,7 @@
       </c>
     </row>
     <row r="26" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8">
@@ -2070,7 +2061,7 @@
       </c>
     </row>
     <row r="27" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A27" s="13"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -2095,34 +2086,32 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8">
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="14">
-        <v>100</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15">
-        <v>1</v>
-      </c>
-      <c r="O28" s="15">
+      <c r="D28" s="8">
+        <v>100</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="8">
@@ -2150,7 +2139,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:15">
-      <c r="A30" s="13"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -2176,7 +2165,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:15">
-      <c r="A31" s="13"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="8">
         <v>29</v>
       </c>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8495"/>
+    <workbookView windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,6 +113,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="E26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2019.10.18上课看图片
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -283,14 +306,121 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -320,105 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -439,187 +462,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,8 +749,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +820,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -761,65 +843,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -828,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,137 +863,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +1031,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1366,8 +1392,8 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1393,7 +1419,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1420,7 +1446,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2046,7 +2072,9 @@
       <c r="D26" s="8">
         <v>100</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="13">
+        <v>50</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2057,7 +2085,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="29.1" customHeight="1" spans="1:15">

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -113,35 +113,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>HP:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-2019.10.18上课看图片
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>项目部成员名单</t>
   </si>
@@ -240,9 +217,6 @@
   </si>
   <si>
     <t>计算机四班</t>
-  </si>
-  <si>
-    <t>苏振军</t>
   </si>
   <si>
     <t>李佳媛</t>
@@ -269,9 +243,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -299,7 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +286,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -319,8 +323,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,13 +363,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -366,7 +386,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,68 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -462,6 +436,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,180 +616,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -710,6 +684,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -759,7 +759,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,6 +771,45 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,21 +829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -819,30 +843,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,137 +863,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,13 +1033,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1390,10 +1393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1419,7 +1422,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="14"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1446,7 +1449,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2060,7 +2063,7 @@
       </c>
     </row>
     <row r="26" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8">
@@ -2072,9 +2075,7 @@
       <c r="D26" s="8">
         <v>100</v>
       </c>
-      <c r="E26" s="13">
-        <v>50</v>
-      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2085,11 +2086,11 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A27" s="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:15">
+      <c r="A27" s="14"/>
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -2114,14 +2115,16 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:15">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="B28" s="8">
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="8">
+        <v>36</v>
+      </c>
+      <c r="D28" s="10">
         <v>100</v>
       </c>
       <c r="E28" s="7"/>
@@ -2135,13 +2138,12 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7">
+        <f>D28-E28-F28-G28-H28-I28-J28-K28-L28-M28-N28</f>
         <v>100</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">
-      <c r="A29" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A29" s="8"/>
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -2174,7 +2176,7 @@
       <c r="C30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>100</v>
       </c>
       <c r="E30" s="7"/>
@@ -2188,32 +2190,6 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7">
-        <f>D30-E30-F30-G30-H30-I30-J30-K30-L30-M30-N30</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8">
-        <v>29</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="8">
-        <v>100</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7">
         <v>100</v>
       </c>
     </row>
@@ -2222,8 +2198,8 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -89,6 +89,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2019.10.22工作时间嬉皮打闹
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0">
       <text>
         <r>
@@ -242,8 +265,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -273,14 +296,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,8 +377,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -303,21 +401,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,17 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,67 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -436,43 +459,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,91 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,43 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,35 +765,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,11 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,6 +814,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -828,21 +866,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,10 +874,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,137 +886,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1054,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1395,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1422,7 +1448,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="15"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1449,7 +1475,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1966,7 +1992,9 @@
       <c r="D22" s="8">
         <v>100</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="13">
+        <v>50</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1977,7 +2005,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="29.1" customHeight="1" spans="1:15">
@@ -2063,7 +2091,7 @@
       </c>
     </row>
     <row r="26" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8">
@@ -2090,7 +2118,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:15">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="8">
         <v>25</v>
       </c>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -136,6 +136,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="E28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2019.11.18工作期间浏览学习无关东西</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -265,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -303,22 +325,99 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,104 +440,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -459,6 +481,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,175 +547,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,17 +791,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +811,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,9 +847,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,7 +860,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,27 +874,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -874,145 +896,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,14 +1078,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1421,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1992,7 +2014,7 @@
       <c r="D22" s="8">
         <v>100</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>50</v>
       </c>
       <c r="F22" s="7"/>
@@ -2091,7 +2113,7 @@
       </c>
     </row>
     <row r="26" ht="29.1" customHeight="1" spans="1:15">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8">
@@ -2118,7 +2140,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:15">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -2155,7 +2177,9 @@
       <c r="D28" s="10">
         <v>100</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="15">
+        <v>50</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2167,7 +2191,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7">
         <f>D28-E28-F28-G28-H28-I28-J28-K28-L28-M28-N28</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>项目部成员名单</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>高彬</t>
+  </si>
+  <si>
+    <t>计算机七班</t>
+  </si>
+  <si>
+    <t>史添琪</t>
+  </si>
+  <si>
+    <t>计算机八班</t>
+  </si>
+  <si>
+    <t>丛万松</t>
   </si>
 </sst>
 </file>
@@ -288,8 +300,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -318,44 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,11 +351,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,6 +404,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -409,7 +436,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,39 +466,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,31 +493,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,151 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,45 +799,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +820,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -860,7 +857,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,8 +865,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,6 +885,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -896,10 +908,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,137 +920,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,9 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1441,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1470,7 +1479,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="16"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1497,7 +1506,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2177,7 +2186,7 @@
       <c r="D28" s="10">
         <v>100</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="11">
         <v>50</v>
       </c>
       <c r="F28" s="7"/>
@@ -2242,6 +2251,60 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:15">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="8">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8">
+        <v>100</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:15">
+      <c r="A32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="8">
+        <v>30</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8">
+        <v>100</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7">
         <v>100</v>
       </c>
     </row>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -299,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -329,10 +329,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,9 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,10 +412,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,72 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,8 +451,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,25 +493,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,157 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +799,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,11 +853,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,59 +894,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,10 +908,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,133 +920,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,8 +1452,8 @@
   <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>

--- a/equipment/项目部人员分数.xlsx
+++ b/equipment/项目部人员分数.xlsx
@@ -89,6 +89,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2019/1、11请假只发微信未打电话</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E22" authorId="0">
       <text>
         <r>
@@ -299,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -329,65 +351,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,7 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +389,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,9 +412,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,17 +440,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,10 +463,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,31 +515,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,151 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +821,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,34 +878,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,30 +922,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -908,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,8 +1474,8 @@
   <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1971,7 +1993,9 @@
       <c r="D20" s="10">
         <v>100</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12">
+        <v>10</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1983,7 +2007,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="29.1" customHeight="1" spans="1:15">
